--- a/Mulyani/DataMulyani.xlsx
+++ b/Mulyani/DataMulyani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Mulyani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCAD04-ECD2-4D98-A092-580083C71A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F750AB3-A576-4DDF-90D6-03FA3EE73FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3703D9C4-D3DD-403A-9D67-9385FFA05A2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3703D9C4-D3DD-403A-9D67-9385FFA05A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="248">
   <si>
     <t>AMAQ MASITAH</t>
   </si>
@@ -364,6 +364,411 @@
   </si>
   <si>
     <t>5203090102510002</t>
+  </si>
+  <si>
+    <t>sarihun</t>
+  </si>
+  <si>
+    <t>5203095505760004</t>
+  </si>
+  <si>
+    <t>yuni</t>
+  </si>
+  <si>
+    <t>5203144604990004</t>
+  </si>
+  <si>
+    <t>inak zik</t>
+  </si>
+  <si>
+    <t>5203094107801795</t>
+  </si>
+  <si>
+    <t>susi</t>
+  </si>
+  <si>
+    <t>5203095706020002</t>
+  </si>
+  <si>
+    <t>husnul</t>
+  </si>
+  <si>
+    <t>5203094809900003</t>
+  </si>
+  <si>
+    <t>pahriah</t>
+  </si>
+  <si>
+    <t>5203094301830003</t>
+  </si>
+  <si>
+    <t>muhibah</t>
+  </si>
+  <si>
+    <t>5203090707870020</t>
+  </si>
+  <si>
+    <t>manida</t>
+  </si>
+  <si>
+    <t>5203097112890365</t>
+  </si>
+  <si>
+    <t>nur</t>
+  </si>
+  <si>
+    <t>5203095407850006</t>
+  </si>
+  <si>
+    <t>sahtum</t>
+  </si>
+  <si>
+    <t>5203093112660096</t>
+  </si>
+  <si>
+    <t>riaman</t>
+  </si>
+  <si>
+    <t>5203094107730771</t>
+  </si>
+  <si>
+    <t>kamran</t>
+  </si>
+  <si>
+    <t>5203097112530110</t>
+  </si>
+  <si>
+    <t>JULIADIS</t>
+  </si>
+  <si>
+    <t>5203092808810002</t>
+  </si>
+  <si>
+    <t>SITI SARAH</t>
+  </si>
+  <si>
+    <t>5203094107871349</t>
+  </si>
+  <si>
+    <t>IRWAN</t>
+  </si>
+  <si>
+    <t>5203090708950003</t>
+  </si>
+  <si>
+    <t>IRMAWATI</t>
+  </si>
+  <si>
+    <t>5203094107950929</t>
+  </si>
+  <si>
+    <t>MISLUN</t>
+  </si>
+  <si>
+    <t>5203097112840453</t>
+  </si>
+  <si>
+    <t>TATANG SURYA ATMAJA</t>
+  </si>
+  <si>
+    <t>5203090706840004</t>
+  </si>
+  <si>
+    <t>ELA MARLIANI</t>
+  </si>
+  <si>
+    <t>5203134508960008</t>
+  </si>
+  <si>
+    <t>INAQ MAAH</t>
+  </si>
+  <si>
+    <t>5203094711640001</t>
+  </si>
+  <si>
+    <t>MAHREP</t>
+  </si>
+  <si>
+    <t>5203094107671449</t>
+  </si>
+  <si>
+    <t>IRNO</t>
+  </si>
+  <si>
+    <t>5203090707910004</t>
+  </si>
+  <si>
+    <t>ELNI FARIDA</t>
+  </si>
+  <si>
+    <t>5203094505950009</t>
+  </si>
+  <si>
+    <t>BAMBANG MULIONO</t>
+  </si>
+  <si>
+    <t>5203091505970003</t>
+  </si>
+  <si>
+    <t>MUSMAYANDAWATI</t>
+  </si>
+  <si>
+    <t>5203094207990003</t>
+  </si>
+  <si>
+    <t>SIROJUDIN</t>
+  </si>
+  <si>
+    <t>5203090107720671</t>
+  </si>
+  <si>
+    <t>MASA'AH</t>
+  </si>
+  <si>
+    <t>5203094107750426</t>
+  </si>
+  <si>
+    <t>M. BADRUL</t>
+  </si>
+  <si>
+    <t>5203091403020001</t>
+  </si>
+  <si>
+    <t>HARIADI</t>
+  </si>
+  <si>
+    <t>5203093112850670</t>
+  </si>
+  <si>
+    <t>HAERUNI</t>
+  </si>
+  <si>
+    <t>5203137112960064</t>
+  </si>
+  <si>
+    <t>AYU</t>
+  </si>
+  <si>
+    <t>5203214107350002</t>
+  </si>
+  <si>
+    <t>MARZUKI</t>
+  </si>
+  <si>
+    <t>5203090107740273</t>
+  </si>
+  <si>
+    <t>KUSMIN</t>
+  </si>
+  <si>
+    <t>5203094107750484</t>
+  </si>
+  <si>
+    <t>UMAR HADI</t>
+  </si>
+  <si>
+    <t>5203090107010298</t>
+  </si>
+  <si>
+    <t>SUMALIT</t>
+  </si>
+  <si>
+    <t>5203090107760613</t>
+  </si>
+  <si>
+    <t>MUH. ISMAIL</t>
+  </si>
+  <si>
+    <t>5203091510960003</t>
+  </si>
+  <si>
+    <t>SITI ZOHRAH</t>
+  </si>
+  <si>
+    <t>5203096104030004</t>
+  </si>
+  <si>
+    <t>SUDIRMAN</t>
+  </si>
+  <si>
+    <t>5203090107851136</t>
+  </si>
+  <si>
+    <t>NUHRIM</t>
+  </si>
+  <si>
+    <t>5203094304870003</t>
+  </si>
+  <si>
+    <t>MUHTAR</t>
+  </si>
+  <si>
+    <t>5203091212870010</t>
+  </si>
+  <si>
+    <t>RIPAAH</t>
+  </si>
+  <si>
+    <t>5203095207900006</t>
+  </si>
+  <si>
+    <t>SAHRUN ISMIATI</t>
+  </si>
+  <si>
+    <t>5203090107930394</t>
+  </si>
+  <si>
+    <t>ISMIATI</t>
+  </si>
+  <si>
+    <t>5203097112930345</t>
+  </si>
+  <si>
+    <t>KATNU</t>
+  </si>
+  <si>
+    <t>5203090411740005</t>
+  </si>
+  <si>
+    <t>AMAQ. MUSTAKIM</t>
+  </si>
+  <si>
+    <t>5203093112710212</t>
+  </si>
+  <si>
+    <t>KAPTIAH</t>
+  </si>
+  <si>
+    <t>5203095006780008</t>
+  </si>
+  <si>
+    <t>MUSTAKIM AKBAR</t>
+  </si>
+  <si>
+    <t>5203091010950009</t>
+  </si>
+  <si>
+    <t>H. MUHAMMAD TANTO</t>
+  </si>
+  <si>
+    <t>5203092307690002</t>
+  </si>
+  <si>
+    <t>HARMAWATI</t>
+  </si>
+  <si>
+    <t>5203096011690001</t>
+  </si>
+  <si>
+    <t>ERMAN</t>
+  </si>
+  <si>
+    <t>5203090107801722</t>
+  </si>
+  <si>
+    <t>SUMIATI</t>
+  </si>
+  <si>
+    <t>5203096010830007</t>
+  </si>
+  <si>
+    <t>MELDI PAMPLIANI</t>
+  </si>
+  <si>
+    <t>5203096506990003</t>
+  </si>
+  <si>
+    <t>SAHTIM</t>
+  </si>
+  <si>
+    <t>5203094107590203</t>
+  </si>
+  <si>
+    <t>SENI</t>
+  </si>
+  <si>
+    <t>5203090107771347</t>
+  </si>
+  <si>
+    <t>NURHAYATI</t>
+  </si>
+  <si>
+    <t>5203094107790827</t>
+  </si>
+  <si>
+    <t>SAHRAH</t>
+  </si>
+  <si>
+    <t>5203094107770925</t>
+  </si>
+  <si>
+    <t>M. TEZAR ZAMAN</t>
+  </si>
+  <si>
+    <t>5203090606030001</t>
+  </si>
+  <si>
+    <t>IKA AZINDA</t>
+  </si>
+  <si>
+    <t>5203094107810602</t>
+  </si>
+  <si>
+    <t>SUHERMAN</t>
+  </si>
+  <si>
+    <t>5203093112850194</t>
+  </si>
+  <si>
+    <t>MURNIATI</t>
+  </si>
+  <si>
+    <t>5203094810870003</t>
+  </si>
+  <si>
+    <t>JALALUDIN</t>
+  </si>
+  <si>
+    <t>5203093112760264</t>
+  </si>
+  <si>
+    <t>HADI SUHARSA</t>
+  </si>
+  <si>
+    <t>5203091805750003</t>
+  </si>
+  <si>
+    <t>MARSHA ALIFANABIL</t>
+  </si>
+  <si>
+    <t>5203095710040004</t>
+  </si>
+  <si>
+    <t>HULDIAH</t>
+  </si>
+  <si>
+    <t>5203094701750004</t>
+  </si>
+  <si>
+    <t>SUPARMAN</t>
+  </si>
+  <si>
+    <t>5203092106030002</t>
+  </si>
+  <si>
+    <t>5203092106030003</t>
+  </si>
+  <si>
+    <t>NASARIAH</t>
+  </si>
+  <si>
+    <t>5203094107750975</t>
+  </si>
+  <si>
+    <t>EKA SATRIAWAN</t>
+  </si>
+  <si>
+    <t>5203091108930002</t>
   </si>
 </sst>
 </file>
@@ -391,7 +796,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +806,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,18 +843,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -753,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13CBC7C-D6AD-437A-9AAC-29D0234611A4}">
-  <dimension ref="A2:C58"/>
+  <dimension ref="A2:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,632 +1199,1383 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>69</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>71</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>75</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>76</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>77</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>83</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>84</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>85</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>86</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>87</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>88</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>93</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>95</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>96</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>97</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>103</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>105</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>106</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>107</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>115</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>116</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>117</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>118</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>